--- a/static/Ref_Template.xlsx
+++ b/static/Ref_Template.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\itsth\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4D35145-C84B-4597-89BB-58E72042DE7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D2E40E-C4E4-417F-96BD-B113AAA6AFAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1820" yWindow="1820" windowWidth="28800" windowHeight="15370" xr2:uid="{A0F3B896-52EC-42B5-B25D-94FFEA6B0441}"/>
+    <workbookView xWindow="1870" yWindow="1820" windowWidth="28800" windowHeight="15370" xr2:uid="{A0F3B896-52EC-42B5-B25D-94FFEA6B0441}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Referee Spreadsheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -517,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AD41EF3-7BAD-4480-A62F-AA6DFF8462CB}">
   <dimension ref="Q2:T18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
